--- a/10 - Regression-Dummy/10-Regression-Dummy.xlsx
+++ b/10 - Regression-Dummy/10-Regression-Dummy.xlsx
@@ -1,34 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Google Drive\Mai\Teaching\Courses\LM7204-BizForecasting\Excel-R\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\business-forecasting\10 - Regression-Dummy\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE23BC2A-BE46-4A3B-8404-ABBB8B26202A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1050" yWindow="495" windowWidth="21600" windowHeight="11325" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="mustard.reg" sheetId="13" r:id="rId1"/>
-    <sheet name="mustard.data" sheetId="12" r:id="rId2"/>
-    <sheet name="dummyTrap" sheetId="15" r:id="rId3"/>
-    <sheet name="temp" sheetId="10" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="11" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="14" r:id="rId6"/>
-    <sheet name="banksalary" sheetId="9" r:id="rId7"/>
+    <sheet name="Sheet2" sheetId="16" r:id="rId1"/>
+    <sheet name="mustard.reg" sheetId="13" r:id="rId2"/>
+    <sheet name="mustard.data" sheetId="12" r:id="rId3"/>
+    <sheet name="dummyTrap" sheetId="15" r:id="rId4"/>
+    <sheet name="temp" sheetId="10" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="11" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="14" r:id="rId7"/>
+    <sheet name="banksalary" sheetId="9" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId8"/>
+    <pivotCache cacheId="0" r:id="rId9"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="76">
   <si>
     <t>F</t>
   </si>
@@ -269,7 +274,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$-409]mmm\-yy;@"/>
@@ -1189,7 +1194,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1197,6 +1201,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2377,7 +2382,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2409,7 +2413,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2417,6 +2420,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3201,7 +3205,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3209,6 +3212,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5487,7 +5491,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53520B6F-197B-46BE-9672-5F28311216CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5522,7 +5526,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -5562,7 +5572,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C532E41A-5EFE-4DB0-9FFA-CE9B6AEB9CD5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5598,7 +5608,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A069D94E-89DC-4E00-B8C5-88C0B5336815}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5620,7 +5630,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Admin" refreshedDate="44383.370799652781" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="208">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Admin" refreshedDate="44383.370799652781" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="208" xr:uid="{00000000-000A-0000-FFFF-FFFF04000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:I209" sheet="banksalary"/>
   </cacheSource>
@@ -7958,7 +7968,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0500-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
@@ -8100,6 +8110,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
@@ -8180,6 +8193,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -8215,6 +8245,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -8390,11 +8437,614 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C911A8FD-9113-46B3-8BD0-F689ABDC700D}">
+  <dimension ref="A1:I31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.98538082495880208</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.97097537019648938</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.93711330209239352</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2">
+        <v>3039.7880992265523</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2">
+        <v>14</v>
+      </c>
+      <c r="C12" s="2">
+        <v>3709448887.8938808</v>
+      </c>
+      <c r="D12" s="2">
+        <v>264960634.84956291</v>
+      </c>
+      <c r="E12" s="2">
+        <v>28.674426122220424</v>
+      </c>
+      <c r="F12" s="2">
+        <v>4.7502235553889792E-7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2">
+        <v>110883740.25839251</v>
+      </c>
+      <c r="D13" s="2">
+        <v>9240311.6881993767</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3">
+        <v>26</v>
+      </c>
+      <c r="C14" s="3">
+        <v>3820332628.1522732</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="2">
+        <v>47731.695678244098</v>
+      </c>
+      <c r="C17" s="2">
+        <v>2609.6842621223682</v>
+      </c>
+      <c r="D17" s="2">
+        <v>18.290218618027577</v>
+      </c>
+      <c r="E17" s="2">
+        <v>3.9489786138103638E-10</v>
+      </c>
+      <c r="F17" s="2">
+        <v>42045.682126551226</v>
+      </c>
+      <c r="G17" s="2">
+        <v>53417.709229936969</v>
+      </c>
+      <c r="H17" s="2">
+        <v>42045.682126551226</v>
+      </c>
+      <c r="I17" s="2">
+        <v>53417.709229936969</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="2">
+        <v>-183.97853423370034</v>
+      </c>
+      <c r="C18" s="2">
+        <v>92.497806221229709</v>
+      </c>
+      <c r="D18" s="2">
+        <v>-1.9890042991254679</v>
+      </c>
+      <c r="E18" s="2">
+        <v>6.9991320170450191E-2</v>
+      </c>
+      <c r="F18" s="2">
+        <v>-385.51394114458878</v>
+      </c>
+      <c r="G18" s="2">
+        <v>17.556872677188124</v>
+      </c>
+      <c r="H18" s="2">
+        <v>-385.51394114458878</v>
+      </c>
+      <c r="I18" s="2">
+        <v>17.556872677188124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="2">
+        <v>-5819.6179407945237</v>
+      </c>
+      <c r="C19" s="2">
+        <v>3041.1950829164366</v>
+      </c>
+      <c r="D19" s="2">
+        <v>-1.9135957352705053</v>
+      </c>
+      <c r="E19" s="2">
+        <v>7.982234780340676E-2</v>
+      </c>
+      <c r="F19" s="2">
+        <v>-12445.812804973746</v>
+      </c>
+      <c r="G19" s="2">
+        <v>806.5769233846986</v>
+      </c>
+      <c r="H19" s="2">
+        <v>-12445.812804973746</v>
+      </c>
+      <c r="I19" s="2">
+        <v>806.5769233846986</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="2">
+        <v>-3118.8769364514687</v>
+      </c>
+      <c r="C20" s="2">
+        <v>3045.4121338206978</v>
+      </c>
+      <c r="D20" s="2">
+        <v>-1.0241231069564971</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.32597978385055626</v>
+      </c>
+      <c r="F20" s="2">
+        <v>-9754.259965244255</v>
+      </c>
+      <c r="G20" s="2">
+        <v>3516.506092341318</v>
+      </c>
+      <c r="H20" s="2">
+        <v>-9754.259965244255</v>
+      </c>
+      <c r="I20" s="2">
+        <v>3516.506092341318</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="2">
+        <v>-15340.026386577309</v>
+      </c>
+      <c r="C21" s="2">
+        <v>5272.3749546100817</v>
+      </c>
+      <c r="D21" s="2">
+        <v>-2.9095097595750907</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1.3092989614203337E-2</v>
+      </c>
+      <c r="F21" s="2">
+        <v>-26827.544580497924</v>
+      </c>
+      <c r="G21" s="2">
+        <v>-3852.5081926566909</v>
+      </c>
+      <c r="H21" s="2">
+        <v>-26827.544580497924</v>
+      </c>
+      <c r="I21" s="2">
+        <v>-3852.5081926566909</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="2">
+        <v>10736.635972653119</v>
+      </c>
+      <c r="C22" s="2">
+        <v>3062.222264090447</v>
+      </c>
+      <c r="D22" s="2">
+        <v>3.5061582885598135</v>
+      </c>
+      <c r="E22" s="2">
+        <v>4.3324488553890391E-3</v>
+      </c>
+      <c r="F22" s="2">
+        <v>4064.6268163602253</v>
+      </c>
+      <c r="G22" s="2">
+        <v>17408.645128946013</v>
+      </c>
+      <c r="H22" s="2">
+        <v>4064.6268163602253</v>
+      </c>
+      <c r="I22" s="2">
+        <v>17408.645128946013</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="2">
+        <v>3560.1454786664017</v>
+      </c>
+      <c r="C23" s="2">
+        <v>5952.2895299976708</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.59811362681945934</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0.56088338695259865</v>
+      </c>
+      <c r="F23" s="2">
+        <v>-9408.7793151864407</v>
+      </c>
+      <c r="G23" s="2">
+        <v>16529.070272519246</v>
+      </c>
+      <c r="H23" s="2">
+        <v>-9408.7793151864407</v>
+      </c>
+      <c r="I23" s="2">
+        <v>16529.070272519246</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="2">
+        <v>31083.190146733243</v>
+      </c>
+      <c r="C24" s="2">
+        <v>3090.0359347111184</v>
+      </c>
+      <c r="D24" s="2">
+        <v>10.059167855482933</v>
+      </c>
+      <c r="E24" s="2">
+        <v>3.3600425338624026E-7</v>
+      </c>
+      <c r="F24" s="2">
+        <v>24350.580208051892</v>
+      </c>
+      <c r="G24" s="2">
+        <v>37815.800085414594</v>
+      </c>
+      <c r="H24" s="2">
+        <v>24350.580208051892</v>
+      </c>
+      <c r="I24" s="2">
+        <v>37815.800085414594</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="2">
+        <v>6753.6148453848646</v>
+      </c>
+      <c r="C25" s="2">
+        <v>3074.7695510546619</v>
+      </c>
+      <c r="D25" s="2">
+        <v>2.1964621195979839</v>
+      </c>
+      <c r="E25" s="2">
+        <v>4.8443295756198088E-2</v>
+      </c>
+      <c r="F25" s="2">
+        <v>54.267499276823401</v>
+      </c>
+      <c r="G25" s="2">
+        <v>13452.962191492905</v>
+      </c>
+      <c r="H25" s="2">
+        <v>54.267499276823401</v>
+      </c>
+      <c r="I25" s="2">
+        <v>13452.962191492905</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="2">
+        <v>6274.9632266572416</v>
+      </c>
+      <c r="C26" s="2">
+        <v>3062.222264090447</v>
+      </c>
+      <c r="D26" s="2">
+        <v>2.0491534204559301</v>
+      </c>
+      <c r="E26" s="2">
+        <v>6.2965740924727273E-2</v>
+      </c>
+      <c r="F26" s="2">
+        <v>-397.0459296356521</v>
+      </c>
+      <c r="G26" s="2">
+        <v>12946.972382950134</v>
+      </c>
+      <c r="H26" s="2">
+        <v>-397.0459296356521</v>
+      </c>
+      <c r="I26" s="2">
+        <v>12946.972382950134</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="2">
+        <v>-516.33545399674767</v>
+      </c>
+      <c r="C27" s="2">
+        <v>3052.4276053005801</v>
+      </c>
+      <c r="D27" s="2">
+        <v>-0.16915567566618925</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0.86849213468405728</v>
+      </c>
+      <c r="F27" s="2">
+        <v>-7167.0038820560667</v>
+      </c>
+      <c r="G27" s="2">
+        <v>6134.3329740625713</v>
+      </c>
+      <c r="H27" s="2">
+        <v>-7167.0038820560667</v>
+      </c>
+      <c r="I27" s="2">
+        <v>6134.3329740625713</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" s="2">
+        <v>-2882.3815604026072</v>
+      </c>
+      <c r="C28" s="2">
+        <v>3045.4121338206987</v>
+      </c>
+      <c r="D28" s="2">
+        <v>-0.94646682739338883</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0.36258014867023158</v>
+      </c>
+      <c r="F28" s="2">
+        <v>-9517.7645891953962</v>
+      </c>
+      <c r="G28" s="2">
+        <v>3753.0014683901813</v>
+      </c>
+      <c r="H28" s="2">
+        <v>-9517.7645891953962</v>
+      </c>
+      <c r="I28" s="2">
+        <v>3753.0014683901813</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="2">
+        <v>-19130.047656845727</v>
+      </c>
+      <c r="C29" s="2">
+        <v>6080.2798123896509</v>
+      </c>
+      <c r="D29" s="2">
+        <v>-3.1462446214835138</v>
+      </c>
+      <c r="E29" s="2">
+        <v>8.4335398821780306E-3</v>
+      </c>
+      <c r="F29" s="2">
+        <v>-32377.839320046947</v>
+      </c>
+      <c r="G29" s="2">
+        <v>-5882.2559936445068</v>
+      </c>
+      <c r="H29" s="2">
+        <v>-32377.839320046947</v>
+      </c>
+      <c r="I29" s="2">
+        <v>-5882.2559936445068</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="2">
+        <v>18898.352139455983</v>
+      </c>
+      <c r="C30" s="2">
+        <v>5265.0674321036022</v>
+      </c>
+      <c r="D30" s="2">
+        <v>3.5893846343208837</v>
+      </c>
+      <c r="E30" s="2">
+        <v>3.7176478620625088E-3</v>
+      </c>
+      <c r="F30" s="2">
+        <v>7426.7556693255647</v>
+      </c>
+      <c r="G30" s="2">
+        <v>30369.948609586401</v>
+      </c>
+      <c r="H30" s="2">
+        <v>7426.7556693255647</v>
+      </c>
+      <c r="I30" s="2">
+        <v>30369.948609586401</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="3">
+        <v>17929.522006820498</v>
+      </c>
+      <c r="C31" s="3">
+        <v>4078.3036962392689</v>
+      </c>
+      <c r="D31" s="3">
+        <v>4.3963185045179127</v>
+      </c>
+      <c r="E31" s="3">
+        <v>8.7099772876928416E-4</v>
+      </c>
+      <c r="F31" s="3">
+        <v>9043.6615901750993</v>
+      </c>
+      <c r="G31" s="3">
+        <v>26815.382423465897</v>
+      </c>
+      <c r="H31" s="3">
+        <v>9043.6615901750993</v>
+      </c>
+      <c r="I31" s="3">
+        <v>26815.382423465897</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BI44"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:AF29"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AY35" sqref="AY35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14107,8 +14757,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14482,11 +15132,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="W18" sqref="W18"/>
     </sheetView>
   </sheetViews>
@@ -15848,8 +16498,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15921,8 +16571,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15935,8 +16585,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A3:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15986,8 +16636,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AW209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -26799,7 +27449,7 @@
       <c r="S209" s="6"/>
     </row>
   </sheetData>
-  <sortState ref="AE2:AE210">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="AE2:AE210">
     <sortCondition ref="AE1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26808,6 +27458,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AF6D9EDA35E42B4B8BA68358CD6B4667" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1c2d3313f571f159a984235e0da85421">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d47f257c-f9b4-4a78-89eb-782bf7388d0d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="64fa7c12d726f85c4b96a9ad3b163f70" ns2:_="">
     <xsd:import namespace="d47f257c-f9b4-4a78-89eb-782bf7388d0d"/>
@@ -26939,15 +27598,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -26955,13 +27605,36 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C04B15F-54D9-4364-A664-ED610DA9649C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{787C65E7-9024-4A9D-B49A-BE4D9519E803}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{787C65E7-9024-4A9D-B49A-BE4D9519E803}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C04B15F-54D9-4364-A664-ED610DA9649C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="d47f257c-f9b4-4a78-89eb-782bf7388d0d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1F131E1-4C94-4B19-A3CC-F6B223260AE9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1F131E1-4C94-4B19-A3CC-F6B223260AE9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>